--- a/Output/Data_Gap_Wenatchee_Entiat_Methow,Tier1_and_survey_before_2011.xlsx
+++ b/Output/Data_Gap_Wenatchee_Entiat_Methow,Tier1_and_survey_before_2011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t xml:space="preserve">Assessment Unit</t>
   </si>
@@ -26,13 +26,139 @@
     <t xml:space="preserve">total_length_miles</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek 01,Dead Horse Canyon 01,Fish Lake Run 01,Fish Lake Run 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 03,Blue Buck Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Fork Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek South Fork 01,Beaver Creek South Fork 02,Beaver Creek South Fork 03,Beaver Creek South Fork 04,Beaver Creek South Fork 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Creek 01,Hornet Draw 01,Libby Creek 03,Libby Creek 04,Libby Creek 05,Libby Creek 06,Libby Creek 07,Libby Creek North Fork 01,Libby Creek North Fork 02,Libby Creek South Fork 01,Libby Creek South Fork 02,Smith Canyon Creek 01,Smith Canyon Creek 02,Smith Canyon Creek 03,Smith Canyon Creek 04,Smith Canyon Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 03,Big Meadow Creek 04,Pole Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Canyon Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Canyon Creek 01,Black Canyon Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek-Brender Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brender Creek 01,Mission Creek 01,Mission Creek 02,Mission Creek 03,Mission Creek 04,Mission Creek 05,Mission Creek 06,Mission Creek 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat</t>
   </si>
   <si>
-    <t xml:space="preserve">Brennegan Creek 01,Entiat River Preston 01,Entiat River Preston 02,Preston Creek 01</t>
+    <t xml:space="preserve">Brennegan Creek 01,Entiat River Preston 01,Entiat River Preston 02,Entiat River Preston 04,Preston Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Doe Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brevicomis Creek,Chewuch River Doe 01,Chewuch River Doe 02,Chewuch River Doe 03,Chewuch River Doe 04,Chewuch River Doe 05,Chewuch River Doe 06,Chewuch River Doe 07,Chewuch River Doe 08,Doe Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush Creek 01,Brush Creek 02,Clear Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buck Creek 01,Chiwawa River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butcher Creek 01,Coulter Creek 01,Gill Creek 01,Kahler Creek 01,Nason Creek Lower 01,Nason Creek Lower 02,Nason Creek Lower 03,Nason Creek Lower 04,Nason Creek Lower 05,Nason Creek Lower 06,Nason Creek Lower 07,Nason Creek Lower 08,Nason Creek Lower 09,Nason Creek Lower 10,Nason Creek Lower 11,Nason Creek Lower 12,Nason Creek Lower 13,Nason Creek Lower 14,Roaring Creek Nason 01,Roaring Creek Nason 02,Roaring Creek Nason 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camas Creek 01,Hansel Creek 01,Larsen Creek 01,Mill Creek Peshastin 01,Mill Creek Peshastin 02,Peshastin Creek Lower 01,Peshastin Creek Lower 02,Peshastin Creek Lower 03,Peshastin Creek Lower 04,Peshastin Creek Lower 05,Peshastin Creek Lower 06,Peshastin Creek Lower 07,Peshastin Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Kay Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Kay 01,Chewuch River Kay 02,Chewuch River Kay 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Pearrygin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Pearrygin 01,Chewuch River Pearrygin 02,Chewuch River Pearrygin 03,Chewuch River Pearrygin 04,Chewuch River Pearrygin 05,Chewuch River Pearrygin 06,Chewuch River Pearrygin 07,Chewuch River Pearrygin 08,Chewuch River Pearrygin 09,Chewuch River Pearrygin 10,Chewuch River Pearrygin 11,Pearrygin Lake Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 02,Chewuch River Thirtymile 03,Chewuch River Thirtymile 04,Chewuch River Thirtymile 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 01,Chikamin Creek 02,Chikamin Creek 03,Chikamin Creek 04,Minnow Creek 01,Minnow Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 01,Chiwaukum Creek 02,Chiwaukum Creek 03,Chiwaukum Creek 04,Chiwaukum Creek 05,Skinney Creek 01,Skinney Creek 02,Skinney Creek 03,Skinney Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 02,Chiwawa River Middle 03,Chiwawa River Middle 04,Raging Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 05,Chiwawa River Upper 01,Chiwawa River Upper 02,Chiwawa River Upper 03,Chiwawa River Upper 04,Chiwawa River Upper 05,Little Giant Creek 01,Maple Creek 01,Rock Creek 01,Y Creek 01,Y Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chumstick Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chumstick Creek 01,Chumstick Creek 02,Chumstick Creek 03,Chumstick Creek 04,Chumstick Creek 05,Chumstick Creek 06,Chumstick Creek 07,Chumstick Creek 08,Chumstick Creek 09,Freund Creek 01,Spromberg Canyon 01,Sunitsch Canyon 01</t>
   </si>
   <si>
     <t xml:space="preserve">Upper Mad River</t>
@@ -41,85 +167,154 @@
     <t xml:space="preserve">Cougar Creek 01,Mad River Upper 01,Mad River Upper 02,Mad River Upper 03,Mad River Upper 04,Mad River Upper 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Gold Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crater Creek 01,Crater Creek 02,Crater Creek 03,Foggy Dew Creek 01,Foggy Dew Creek 02,Foggy Dew Creek 03,Foggy Dew Creek 04,Gold Creek 01,Gold Creek 02,Gold Creek 03,Gold Creek 04,Gold Creek 05,Gold Creek North Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Derby Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby Canyon 01,Derby Canyon 02,Derby Canyon 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Creek 01,Lost River Upper 01,Lost River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Lost River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drake Creek 01,Lost River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek (Wenatchee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek 01,Early Winters Creek 02,Early Winters Creek 03,Early Winters Creek 04,Early Winters Creek 05,Pine Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 01,Eight Mile Creek 02,Eight Mile Creek 03,Eight Mile Creek 04,Eight Mile Creek 05,Eight Mile Creek 06,Eight Mile Creek 07,Eight Mile Creek 08,Eight Mile Creek 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 01,Entiat River Mills 07,Entiat River Mills 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 01,Entiat River Potato 02,Entiat River Potato 03,Entiat River Potato 04,Entiat River Potato 06,Entiat River Potato 07,Entiat River Potato 08,Potato Creek 01,Potato Creek 02,Potato Creek 03,Potato Creek 04,Potato Creek 05,Stormy Creek 01,Stormy Creek 02,Stormy Creek 03,Tyee Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 01,Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek (Methow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farewell Creek 01,Lake Creek Methow 03,Lake Creek Methow 04,Lake Creek Methow 05,Lake Creek Methow 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fawn Creek 01,Hancock Creek 01,Little Boulder Creek 01,Methow River Fawn 02,Methow River Fawn 03,Methow River Fawn 04,Methow River Fawn 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek (Wenatchee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 02,French Creek 03,French Creek 04,French Creek 05,French Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 01,Goat Creek 02,Goat Creek 03,Goat Creek 04,Goat Creek 05,Goat Creek 06,Goat Creek 07,Goat Creek 08,Goat Creek 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Fork Gold Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek South Fork 01,Gold Creek South Fork 02,Gold Creek South Fork 03,Gold Creek South Fork 04,Rainy Creek Methow 01,Rainy Creek Methow 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Creek 01,Mill Creek Nason 01,Nason Creek Upper 02,Nason Creek Upper 03,Nason Creek Upper 04,Nason Creek Upper 05,Nason Creek Upper 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hornet Creek 01,Hornet Creek 02,Mad River Lower 05,Mad River Lower 06,Mad River Lower 07,Mad River Lower 08,Mad River Lower 09,Mad River Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 01,Icicle Creek Lower 02,Icicle Creek Lower 03,Icicle Creek Lower 04,Icicle Creek Lower 05,Icicle Creek Lower 06,Icicle Creek Lower 07,Icicle Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 01,Icicle Creek Middle 02,Icicle Creek Middle 03,Icicle Creek Middle 04,Icicle Creek Middle 05,Icicle Creek Middle 06,Icicle Creek Middle 07,Icicle Creek Middle 08,Icicle Creek Middle 09,Icicle Creek Middle 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingalls Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingalls Creek 01,Ingalls Creek 02,Ingalls Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillicum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kloochman Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River-Lake Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 11,Lake Creek Entiat 01,Tommy Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 01,Entiat River Mills 07,Entiat River Mills 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 01,Entiat River Potato 02,Entiat River Potato 03,Entiat River Potato 04,Entiat River Potato 06,Entiat River Potato 07,Entiat River Potato 08,Potato Creek 01,Potato Creek 02,Potato Creek 03,Potato Creek 04,Potato Creek 05,Stormy Creek 01,Stormy Creek 02,Stormy Creek 03,Tyee Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hornet Creek 01,Hornet Creek 02,Mad River Lower 05,Mad River Lower 06,Mad River Lower 07,Mad River Lower 08,Mad River Lower 09,Mad River Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River-Doe Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brevicomis Creek,Chewuch River Doe 01,Chewuch River Doe 02,Chewuch River Doe 03,Chewuch River Doe 04,Chewuch River Doe 05,Chewuch River Doe 06,Chewuch River Doe 07,Chewuch River Doe 08,Doe Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River-Kay Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River Kay 01,Chewuch River Kay 02,Chewuch River Kay 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River-Pearrygin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River Pearrygin 01,Chewuch River Pearrygin 02,Chewuch River Pearrygin 03,Chewuch River Pearrygin 04,Chewuch River Pearrygin 05,Chewuch River Pearrygin 06,Chewuch River Pearrygin 07,Chewuch River Pearrygin 08,Chewuch River Pearrygin 09,Chewuch River Pearrygin 10,Chewuch River Pearrygin 11,Pearrygin Lake Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River Thirtymile 02,Chewuch River Thirtymile 03,Chewuch River Thirtymile 04,Chewuch River Thirtymile 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crater Creek 01,Crater Creek 02,Crater Creek 03,Foggy Dew Creek 01,Foggy Dew Creek 02,Foggy Dew Creek 03,Foggy Dew Creek 04,Gold Creek 01,Gold Creek 02,Gold Creek 03,Gold Creek 04,Gold Creek 05,Gold Creek North Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Lost River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drake Creek 01,Lost River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 01,Eight Mile Creek 02,Eight Mile Creek 03,Eight Mile Creek 04,Eight Mile Creek 05,Eight Mile Creek 06,Eight Mile Creek 07,Eight Mile Creek 08,Eight Mile Creek 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek (Methow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farewell Creek 01,Lake Creek Methow 03,Lake Creek Methow 04,Lake Creek Methow 05,Lake Creek Methow 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fawn Creek 01,Hancock Creek 01,Little Boulder Creek 01,Methow River Fawn 02,Methow River Fawn 03,Methow River Fawn 04,Methow River Fawn 05</t>
+    <t xml:space="preserve">Lake Creek Entiat 01,Tommy Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Camas Creek 01,Sand Creek 01,Sand Creek 02</t>
   </si>
   <si>
     <t xml:space="preserve">Middle Twisp River</t>
@@ -128,6 +323,18 @@
     <t xml:space="preserve">Little Slate Creek 01,Scaffold Camp Creek 01</t>
   </si>
   <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 01,Little Wenatchee River Lower 02,Little Wenatchee River Lower 03,Little Wenatchee River Lower 04,Little Wenatchee River Lower 05,Little Wenatchee River Lower 06,Lost Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Lost River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 01,Lost River Lower 02,Lost River Lower 03,Lost River Lower 04,Lost River Lower 05,Lost River Lower 06,Monument Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Methow River-Alta Coulee</t>
   </si>
   <si>
@@ -140,145 +347,94 @@
     <t xml:space="preserve">Methow River Thompson 01,Methow River Thompson 02,Methow River Thompson 03,Methow River Thompson 04,Methow River Thompson 05,Methow River Thompson 06</t>
   </si>
   <si>
+    <t xml:space="preserve">West Fork Methow River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River West Fork 01,Methow River West Fork 02,Methow River West Fork 03,Methow River West Fork 04,Trout Creek 01,Trout Creek 02,Trout Creek 03,Trout Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Fork Mission Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek 08,Mission Creek 09,Mission Creek East Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Creek 01,Mud Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napeequa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napeequa River 01,Napeequa River 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panther Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panther Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phelps Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phelps Creek 01,Phelps Creek 02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lower Twisp River</t>
   </si>
   <si>
     <t xml:space="preserve">Poorman Creek 01,Twisp River Lower 01,Twisp River Lower 02,Twisp River Lower 03,Twisp River Lower 04,Twisp River Lower 05,Twisp River Lower 06,Twisp River Lower 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Roaring Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roaring Creek Entiat 05,Roaring Creek Entiat 06,Tamarack Creek 01,Tamarack Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Creek 02,Rock Creek 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Upper Twisp River</t>
   </si>
   <si>
     <t xml:space="preserve">Scatter Creek 01,Whistling Creek 01,Williams Creek 01</t>
   </si>
   <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sears Creek 01,White River Lower 04,White River Lower 05,White River Lower 06,White River Lower 07,White River Lower 08,White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Tumwater Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Tumwater 03,Wenatchee River Tumwater 04,Wenatchee River Tumwater 05,Wenatchee River Tumwater 06,Wenatchee River Tumwater 07,Wenatchee River Tumwater 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitepine Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitepine Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wolf Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek 04,Wolf Creek 05,Wolf Creek 06,Wolf Creek North Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek 01,Dead Horse Canyon 01,Fish Lake Run 01,Fish Lake Run 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 03,Big Meadow Creek 04,Pole Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek-Brender Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brender Creek 01,Mission Creek 01,Mission Creek 02,Mission Creek 03,Mission Creek 04,Mission Creek 05,Mission Creek 06,Mission Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brush Creek 01,Brush Creek 02,Clear Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buck Creek 01,Chiwawa River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butcher Creek 01,Coulter Creek 01,Gill Creek 01,Kahler Creek 01,Nason Creek Lower 01,Nason Creek Lower 02,Nason Creek Lower 03,Nason Creek Lower 04,Nason Creek Lower 05,Nason Creek Lower 06,Nason Creek Lower 07,Nason Creek Lower 08,Nason Creek Lower 09,Nason Creek Lower 10,Nason Creek Lower 11,Nason Creek Lower 12,Nason Creek Lower 13,Nason Creek Lower 14,Roaring Creek Nason 01,Roaring Creek Nason 02,Roaring Creek Nason 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camas Creek 01,Hansel Creek 01,Larsen Creek 01,Mill Creek Peshastin 01,Mill Creek Peshastin 02,Peshastin Creek Lower 01,Peshastin Creek Lower 02,Peshastin Creek Lower 03,Peshastin Creek Lower 04,Peshastin Creek Lower 05,Peshastin Creek Lower 06,Peshastin Creek Lower 07,Peshastin Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 01,Chikamin Creek 02,Chikamin Creek 03,Chikamin Creek 04,Minnow Creek 01,Minnow Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 01,Chiwaukum Creek 02,Chiwaukum Creek 03,Chiwaukum Creek 04,Chiwaukum Creek 05,Skinney Creek 01,Skinney Creek 02,Skinney Creek 03,Skinney Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Middle 02,Chiwawa River Middle 03,Chiwawa River Middle 04,Raging Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Middle 05,Chiwawa River Upper 01,Chiwawa River Upper 02,Chiwawa River Upper 03,Chiwawa River Upper 04,Chiwawa River Upper 05,Little Giant Creek 01,Maple Creek 01,Rock Creek 01,Y Creek 01,Y Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 01,Chumstick Creek 02,Chumstick Creek 03,Chumstick Creek 04,Chumstick Creek 05,Chumstick Creek 06,Chumstick Creek 07,Chumstick Creek 08,Chumstick Creek 09,Freund Creek 01,Spromberg Canyon 01,Sunitsch Canyon 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Derby Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby Canyon 01,Derby Canyon 02,Derby Canyon 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 01,Etienne Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 01,Icicle Creek Lower 02,Icicle Creek Lower 03,Icicle Creek Lower 04,Icicle Creek Lower 05,Icicle Creek Lower 06,Icicle Creek Lower 07,Icicle Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 01,Little Wenatchee River Lower 02,Little Wenatchee River Lower 03,Little Wenatchee River Lower 04,Little Wenatchee River Lower 05,Little Wenatchee River Lower 06,Lost Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phelps Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phelps Creek 01,Phelps Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock Creek 02,Rock Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sears Creek 01,White River Lower 04,White River Lower 05,White River Lower 06,White River Lower 07,White River Lower 08,White River Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Tumwater Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Tumwater 03,Wenatchee River Tumwater 04,Wenatchee River Tumwater 05,Wenatchee River Tumwater 06,Wenatchee River Tumwater 07,Wenatchee River Tumwater 08</t>
   </si>
 </sst>
 </file>
@@ -635,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -643,83 +799,83 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>4.6</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9">
@@ -727,209 +883,209 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>3.3</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>13.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>7.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>8.9</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>8.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
-        <v>5.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>2.5</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="24">
@@ -937,13 +1093,13 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>4.4</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="25">
@@ -951,13 +1107,13 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>8.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -965,13 +1121,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +1135,13 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="n">
-        <v>3.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="28">
@@ -993,13 +1149,13 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>17.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29">
@@ -1007,13 +1163,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>11.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="30">
@@ -1021,13 +1177,13 @@
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
       </c>
       <c r="D30" t="n">
-        <v>8.9</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="31">
@@ -1035,13 +1191,13 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>9.2</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="32">
@@ -1049,13 +1205,13 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
       </c>
       <c r="D32" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="33">
@@ -1063,13 +1219,13 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="n">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="34">
@@ -1077,13 +1233,13 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
       <c r="D34" t="n">
-        <v>12.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="35">
@@ -1091,13 +1247,13 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1105,13 +1261,13 @@
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
       </c>
       <c r="D36" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="37">
@@ -1119,13 +1275,13 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>8.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="38">
@@ -1133,13 +1289,13 @@
         <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>80</v>
       </c>
       <c r="D38" t="n">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="39">
@@ -1147,13 +1303,13 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" t="n">
-        <v>1.1</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="40">
@@ -1161,13 +1317,13 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
       <c r="D40" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="41">
@@ -1175,13 +1331,13 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
       </c>
       <c r="D41" t="n">
-        <v>9.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="42">
@@ -1189,13 +1345,377 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
       </c>
       <c r="D42" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="n">
         <v>7.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
